--- a/biology/Médecine/George_Rodocanachi/George_Rodocanachi.xlsx
+++ b/biology/Médecine/George_Rodocanachi/George_Rodocanachi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Rodocanachi, né le 27 février 1876 à Liverpool et mort le 10 février 1944 à Buchenwald, est un médecin britannique naturalisé français d'origine grecque qui se distingua par l'aide qu'il apporta aux évadés alliés et aux réfugiés juifs dans la France de Vichy, durant la Seconde Guerre mondiale. 
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">George Rodocanachi est issu de la famille Rodocanachi, famille grecque établie en Angleterre. Ayant suivi l'enseignement secondaire du lycée Thiers de Marseille, il part étudier la médecine à Paris où il obtient son diplôme en 1903. Il rentre ensuite à Marseille pour y ouvrir un cabinet de pédiatrie en clientèle privée. En 1907 il épouse  Fanny Vlasto à Londres et le couple s'installe à Marseille. Leur fils unique, Constantin, naît en 1908.
 Lorsqu'éclate la Première Guerre mondiale, il travaille d'abord dans un hôpital d'enfants de Marseille. En 1915, il prend la nationalité française et est affecté à un régiment de chasseurs alpins. Il sert ensuite en Alsace et prend part à la bataille de la Somme. Il est gazé et blessé à deux reprises et pour ses faits d'armes reçoit la Croix de guerre et la Légion d'honneur. Après la guerre, il reprend son activité médicale.
